--- a/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/NGH ADT/8.0/NGH ADT accreditamento-checklist_V7.1.1.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/NGH ADT/8.0/NGH ADT accreditamento-checklist_V7.1.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u01113\Desktop\FSE_ACCREDITAMENTO_GPI\LDO_NGH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u01113\Desktop\NGH_ADT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7603CC70-F1AD-4A9C-BC1E-86FEB696CD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB9F2D4-6478-46DF-8921-00472F890661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="5" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="494">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -1865,15 +1865,6 @@
     <t>subject_application_version: 8.0</t>
   </si>
   <si>
-    <t>2023-03-15T16:19:35</t>
-  </si>
-  <si>
-    <t>c87073525a96382c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.d83b4ddd2d28375ab659e245eba1cedf70e3cf39558883bb3e5b8c9223dd37af.275b71bc0f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>E' stato impostato come non valorizzato il campo "purpose_of_use" nel JWT</t>
   </si>
   <si>
@@ -2002,33 +1993,6 @@
     <t>2.16.840.1.113883.2.9.2.180.4.6.09cb14bd26608f0652ce2a980fa8b05f6b278bd44cb4f85a8e335408fba925f7.93643d1304^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>3d59048fda2343dc</t>
-  </si>
-  <si>
-    <t>2023-03-22T20:18:29</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.4c8bea3bc6ea4d68ff2f73c28aa4aaf3c30fa2c477f7559b97515403a3178b7a.76c436723c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2eced8cae436bce6</t>
-  </si>
-  <si>
-    <t>2023-03-22T20:25:39</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.17c07c7be4df1b3df185ef3fc643f63db5295d796340f28f5e1c62fdaaf31d3e.b2cd99570d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ead8ce03d890ed8b</t>
-  </si>
-  <si>
-    <t>2023-03-22T20:32:14</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180.4.6.aefa8721045d7a3f4b7c6ca2b97e9aa45854b3a11cb1a316c6766123486fcf0a.0439a484e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Il software NGH ADT, a livello di inquadramento clinico, prevede la raccolta delle differenti tipologie di anamnesi (es. generica, patologica, familiare,...) e un solo campo di riferimento temporale, senza specificarne la data di prima ed ultima insorgenza.
 Per questa ragione il caso di test 13 non può essere eseguito.</t>
   </si>
@@ -2042,7 +2006,45 @@
     <t>2.16.840.1.113883.2.9.2.180.4.6.2cea7f937a6750a53356eee7df2d117003a62115385c9b0759a028dee97d752f.c2b2517ac5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>In caso di errore il processo applicativo prosegue ed il documento viene firmato. Eventuali verifiche, correzioni dei dati e re-invii vengono concordati/definiti con le singole aziende.</t>
+    <t>Il software NGH ADT, permette la registrazione della prescrizione farmaceutica in dimissione in formato testuale non strutturato, per questo motivo non è possibile indicare la via di somministrazione.
+Per questa ragione il caso di test 2 non può essere eseguito.</t>
+  </si>
+  <si>
+    <t>af963441a3d62ed3</t>
+  </si>
+  <si>
+    <t>2023-03-30T09:32:23</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180.4.6.88479d4e6ece4e3f84da98714ba91c2abac4788502784b83d62ed9f2ac726157.ff38a23d12^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>A livello di inquadramento clinico, il software prevede la raccolta delle differenti tipologie di anamnesi (es. generica, patologica, familiare,...) e un solo campo di riferimento temporale, senza specificarne la data di prima ed ultima insorgenza.</t>
+  </si>
+  <si>
+    <t>Non è previsto un campo dedicato alla raccolta delle complicanze.</t>
+  </si>
+  <si>
+    <t>Per questa ragione il caso di test 16 non può essere eseguito.</t>
+  </si>
+  <si>
+    <t>In caso di errore il processo applicativo prosegue ed il documento viene firmato. Eventuali verifiche, correzioni dei dati e re-invii vengono concordati/definiti con le singole aziende.
+Viene messo a disposizione dell'azienda una modalità di verifica dei documenti che hanno avuto errori di validazione da parte del gateway per poterli individuare e procedere alla correzione, firma e re-invio.</t>
+  </si>
+  <si>
+    <t>Il software NGH ADT, permette la registrazione della prescrizione farmaceutica in dimissione in formato testuale non strutturato, per questo motivo non è possibile indicare la via di somministrazione.
+A livello di inquadramento clinico, il software prevede la raccolta delle differenti tipologie di anamnesi (es. generica, patologica, familiare,...) e un solo campo di riferimento temporale, senza specificarne la data di prima ed ultima insorgenza.
+Non è previsto un campo dedicato alla raccolta delle complicanze.
+Per questa ragione il caso di test 3 non può essere eseguito.</t>
+  </si>
+  <si>
+    <t>Il software NGH ADT, permette la registrazione della prescrizione farmaceutica in dimissione in formato testuale non strutturato, per questo motivo non è possibile indicare la via di somministrazione.
+A livello di inquadramento clinico, il software prevede la raccolta delle differenti tipologie di anamnesi (es. generica, patologica, familiare,...) e un solo campo di riferimento temporale, senza specificarne la data di prima ed ultima insorgenza.
+Non è previsto un campo dedicato alla raccolta delle complicanze.
+Per questa ragione il caso di test 4 non può essere eseguito.</t>
+  </si>
+  <si>
+    <t>In caso di timeout il processo applicativo prosegue ed il documento viene firmato. Eventuali re-invii di validazione vengono concordati/definiti con le singole aziende. Viene messo a disposizione dell'azienda una modalità di verifica dei documenti che hanno avuto errori di validazione da parte del gateway per poterli individuare e procedere alla correzione, firma e re-invio.</t>
   </si>
 </sst>
 </file>
@@ -2464,7 +2466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2606,21 +2608,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4071,11 +4058,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T993"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4087,8 +4074,9 @@
     <col min="5" max="5" width="104.81640625" customWidth="1"/>
     <col min="6" max="9" width="33.1796875" customWidth="1"/>
     <col min="10" max="10" width="27.1796875" customWidth="1"/>
-    <col min="11" max="15" width="36.453125" customWidth="1"/>
-    <col min="16" max="16" width="27.1796875" customWidth="1"/>
+    <col min="11" max="11" width="53.90625" customWidth="1"/>
+    <col min="12" max="15" width="36.453125" customWidth="1"/>
+    <col min="16" max="16" width="42.453125" customWidth="1"/>
     <col min="17" max="17" width="33.1796875" customWidth="1"/>
     <col min="18" max="18" width="36.453125" customWidth="1"/>
     <col min="19" max="19" width="31.81640625" customWidth="1"/>
@@ -4517,16 +4505,16 @@
         <v>39</v>
       </c>
       <c r="F15" s="17">
-        <v>45000</v>
+        <v>45015</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>83</v>
@@ -4562,22 +4550,16 @@
       <c r="E16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="17">
-        <v>45007</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="K16" s="56" t="s">
         <v>483</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
@@ -4592,7 +4574,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14">
         <v>8</v>
       </c>
@@ -4608,22 +4590,16 @@
       <c r="E17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="17">
-        <v>45007</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>486</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>485</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>487</v>
-      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" s="19"/>
+        <v>309</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>491</v>
+      </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
@@ -4638,7 +4614,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14">
         <v>9</v>
       </c>
@@ -4654,22 +4630,16 @@
       <c r="E18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="17">
-        <v>45007</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>490</v>
-      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="19"/>
+        <v>309</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>492</v>
+      </c>
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
@@ -4684,7 +4654,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" ht="131" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="14">
         <v>11</v>
       </c>
@@ -4705,7 +4675,9 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="K19" s="19" t="s">
+        <v>487</v>
+      </c>
       <c r="L19" s="19"/>
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
@@ -4718,7 +4690,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" ht="131" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14">
         <v>12</v>
       </c>
@@ -4739,7 +4711,9 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="K20" s="19" t="s">
+        <v>488</v>
+      </c>
       <c r="L20" s="19"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
@@ -4752,7 +4726,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" ht="131" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14">
         <v>13</v>
       </c>
@@ -4773,7 +4747,9 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="K21" s="19" t="s">
+        <v>489</v>
+      </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
@@ -5282,13 +5258,13 @@
         <v>45007</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J36" s="19" t="s">
         <v>83</v>
@@ -5305,14 +5281,14 @@
         <v>83</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q36" s="19" t="s">
         <v>307</v>
       </c>
       <c r="R36" s="20"/>
       <c r="S36" s="20" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="T36" s="38" t="s">
         <v>430</v>
@@ -5522,7 +5498,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="14">
         <v>36</v>
       </c>
@@ -5556,7 +5532,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="14">
         <v>37</v>
       </c>
@@ -5576,13 +5552,13 @@
         <v>45007</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J44" s="19" t="s">
         <v>83</v>
@@ -5599,20 +5575,20 @@
         <v>83</v>
       </c>
       <c r="P44" s="19" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q44" s="19" t="s">
         <v>307</v>
       </c>
       <c r="R44" s="20"/>
       <c r="S44" s="20" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="T44" s="38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="14">
         <v>38</v>
       </c>
@@ -5646,7 +5622,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="14">
         <v>39</v>
       </c>
@@ -5680,7 +5656,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25">
         <v>40</v>
       </c>
@@ -5714,7 +5690,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="14">
         <v>41</v>
       </c>
@@ -5748,7 +5724,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="14">
         <v>42</v>
       </c>
@@ -5782,7 +5758,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="14">
         <v>43</v>
       </c>
@@ -5868,28 +5844,18 @@
       <c r="E52" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="17">
-        <v>45007</v>
-      </c>
+      <c r="F52" s="17"/>
       <c r="G52" s="18"/>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
-      <c r="J52" s="19" t="s">
-        <v>83</v>
-      </c>
+      <c r="J52" s="19"/>
       <c r="K52" s="19"/>
-      <c r="L52" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="M52" s="19" t="s">
-        <v>309</v>
-      </c>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
       <c r="N52" s="19"/>
-      <c r="O52" s="19" t="s">
-        <v>83</v>
-      </c>
+      <c r="O52" s="19"/>
       <c r="P52" s="19" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="Q52" s="19" t="s">
         <v>307</v>
@@ -5898,7 +5864,7 @@
         <v>83</v>
       </c>
       <c r="S52" s="20" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="T52" s="38" t="s">
         <v>430</v>
@@ -6494,7 +6460,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="14">
         <v>63</v>
       </c>
@@ -6514,13 +6480,13 @@
         <v>45007</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J70" s="19" t="s">
         <v>83</v>
@@ -6537,20 +6503,20 @@
         <v>83</v>
       </c>
       <c r="P70" s="19" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q70" s="19" t="s">
         <v>307</v>
       </c>
       <c r="R70" s="20"/>
       <c r="S70" s="42" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="T70" s="38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="14">
         <v>64</v>
       </c>
@@ -6570,13 +6536,13 @@
         <v>45007</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J71" s="19" t="s">
         <v>83</v>
@@ -6593,20 +6559,20 @@
         <v>83</v>
       </c>
       <c r="P71" s="19" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q71" s="19" t="s">
         <v>307</v>
       </c>
       <c r="R71" s="20"/>
       <c r="S71" s="42" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="T71" s="38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="14">
         <v>65</v>
       </c>
@@ -6626,13 +6592,13 @@
         <v>45007</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H72" s="43" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J72" s="19" t="s">
         <v>83</v>
@@ -6649,46 +6615,46 @@
         <v>83</v>
       </c>
       <c r="P72" s="19" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q72" s="19" t="s">
         <v>307</v>
       </c>
       <c r="R72" s="20"/>
       <c r="S72" s="42" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="T72" s="38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="56">
+    <row r="73" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="14">
         <v>66</v>
       </c>
-      <c r="B73" s="57" t="s">
+      <c r="B73" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="57" t="s">
+      <c r="C73" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="57" t="s">
+      <c r="D73" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E73" s="58" t="s">
+      <c r="E73" s="16" t="s">
         <v>131</v>
       </c>
       <c r="F73" s="17">
         <v>45008</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="J73" s="19" t="s">
         <v>83</v>
@@ -6705,7 +6671,7 @@
         <v>83</v>
       </c>
       <c r="P73" s="19" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q73" s="19" t="s">
         <v>307</v>
@@ -6716,7 +6682,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="14">
         <v>67</v>
       </c>
@@ -6736,13 +6702,13 @@
         <v>45007</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J74" s="19" t="s">
         <v>83</v>
@@ -6759,20 +6725,20 @@
         <v>83</v>
       </c>
       <c r="P74" s="19" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q74" s="19" t="s">
         <v>307</v>
       </c>
       <c r="R74" s="20"/>
       <c r="S74" s="42" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="T74" s="38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="14">
         <v>68</v>
       </c>
@@ -6792,13 +6758,13 @@
         <v>45007</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J75" s="19" t="s">
         <v>83</v>
@@ -6815,20 +6781,20 @@
         <v>83</v>
       </c>
       <c r="P75" s="19" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q75" s="19" t="s">
         <v>307</v>
       </c>
       <c r="R75" s="20"/>
       <c r="S75" s="42" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="T75" s="38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="14">
         <v>69</v>
       </c>
@@ -6848,13 +6814,13 @@
         <v>45007</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J76" s="19" t="s">
         <v>83</v>
@@ -6871,20 +6837,20 @@
         <v>83</v>
       </c>
       <c r="P76" s="19" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q76" s="19" t="s">
         <v>307</v>
       </c>
       <c r="R76" s="20"/>
       <c r="S76" s="19" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="T76" s="38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="14">
         <v>70</v>
       </c>
@@ -6904,13 +6870,13 @@
         <v>45007</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J77" s="19" t="s">
         <v>83</v>
@@ -6927,44 +6893,44 @@
         <v>83</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q77" s="19" t="s">
         <v>307</v>
       </c>
       <c r="R77" s="20"/>
       <c r="S77" s="19" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="T77" s="38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="56">
+    <row r="78" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="14">
         <v>71</v>
       </c>
-      <c r="B78" s="57" t="s">
+      <c r="B78" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="57" t="s">
+      <c r="C78" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="57" t="s">
+      <c r="D78" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="E78" s="58" t="s">
+      <c r="E78" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="F78" s="59"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="60"/>
-      <c r="J78" s="61" t="s">
+      <c r="F78" s="17"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="K78" s="61" t="s">
-        <v>491</v>
+      <c r="K78" s="19" t="s">
+        <v>479</v>
       </c>
       <c r="L78" s="19"/>
       <c r="M78" s="19"/>
@@ -6979,30 +6945,30 @@
       </c>
     </row>
     <row r="79" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="56">
+      <c r="A79" s="14">
         <v>72</v>
       </c>
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="57" t="s">
+      <c r="C79" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="57" t="s">
+      <c r="D79" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="E79" s="58" t="s">
+      <c r="E79" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="F79" s="59"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="61" t="s">
+      <c r="F79" s="17"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="K79" s="61" t="s">
-        <v>476</v>
+      <c r="K79" s="19" t="s">
+        <v>473</v>
       </c>
       <c r="L79" s="19"/>
       <c r="M79" s="19"/>
@@ -7016,7 +6982,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="14">
         <v>73</v>
       </c>
@@ -7036,13 +7002,13 @@
         <v>45007</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J80" s="19" t="s">
         <v>83</v>
@@ -7059,44 +7025,44 @@
         <v>83</v>
       </c>
       <c r="P80" s="19" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q80" s="19" t="s">
         <v>307</v>
       </c>
       <c r="R80" s="20"/>
       <c r="S80" s="19" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="T80" s="38" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="116" x14ac:dyDescent="0.35">
-      <c r="A81" s="56">
+      <c r="A81" s="14">
         <v>74</v>
       </c>
-      <c r="B81" s="57" t="s">
+      <c r="B81" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="57" t="s">
+      <c r="C81" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D81" s="57" t="s">
+      <c r="D81" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="E81" s="58" t="s">
+      <c r="E81" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="61" t="s">
+      <c r="F81" s="17"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="K81" s="61" t="s">
-        <v>477</v>
+      <c r="K81" s="19" t="s">
+        <v>474</v>
       </c>
       <c r="L81" s="19"/>
       <c r="M81" s="19"/>
@@ -9864,7 +9830,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="14">
         <v>156</v>
       </c>
@@ -9898,7 +9864,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="14">
         <v>157</v>
       </c>
@@ -9932,7 +9898,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="14">
         <v>158</v>
       </c>
@@ -9966,7 +9932,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="14">
         <v>159</v>
       </c>
@@ -10000,7 +9966,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="14">
         <v>160</v>
       </c>
@@ -10034,7 +10000,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="14">
         <v>161</v>
       </c>
@@ -10068,7 +10034,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="14">
         <v>162</v>
       </c>
@@ -10102,7 +10068,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="14">
         <v>163</v>
       </c>
@@ -10136,7 +10102,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="14">
         <v>164</v>
       </c>
@@ -10170,7 +10136,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="14">
         <v>165</v>
       </c>
@@ -10204,7 +10170,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="14">
         <v>166</v>
       </c>
@@ -10238,7 +10204,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="14">
         <v>167</v>
       </c>
@@ -10272,7 +10238,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="14">
         <v>168</v>
       </c>
@@ -10306,7 +10272,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="129.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20" ht="129.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="14">
         <v>169</v>
       </c>
@@ -26861,6 +26827,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b4730850ec8220df2460bf5d75163141">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2168c1cf3d5a08369735c09b24c7b76" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -27091,15 +27066,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1940EA21-F316-4004-B0A9-40138AAC7DA1}">
   <ds:schemaRefs>
@@ -27118,6 +27084,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB221413-913B-41FE-97D3-5428BD0403A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27136,14 +27110,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D58B9263-706C-436D-BB9D-8B538C07064D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/NGH ADT/8.0/NGH ADT accreditamento-checklist_V7.1.1.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/NGH ADT/8.0/NGH ADT accreditamento-checklist_V7.1.1.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="508">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -631,10 +631,13 @@
     </r>
   </si>
   <si>
-    <t>2023-03-22T14:13:01</t>
-  </si>
-  <si>
-    <t>a8d4226163ede7f0</t>
+    <t>19/04/2023</t>
+  </si>
+  <si>
+    <t>2023-04-19T13:42:46.550Z</t>
+  </si>
+  <si>
+    <t>796e78ebf40d75be</t>
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
@@ -1013,10 +1016,10 @@
     </r>
   </si>
   <si>
-    <t>2023-03-22T14:19:59</t>
-  </si>
-  <si>
-    <t>05735eee94d2c678</t>
+    <t>2023-04-19T13:43:58.526Z</t>
+  </si>
+  <si>
+    <t>bc644af2d173e6ac</t>
   </si>
   <si>
     <t>Il campo "action_id" è stato valorizzato con la stringa "TEST".</t>
@@ -2833,7 +2836,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2925,6 +2928,12 @@
       <alignment horizontal="center" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="1" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5801,7 +5810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" ht="14.25" hidden="1" customHeight="1">
       <c r="A15" s="26">
         <v>6.0</v>
       </c>
@@ -5847,7 +5856,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" ht="14.25" hidden="1" customHeight="1">
       <c r="A16" s="26">
         <v>7.0</v>
       </c>
@@ -5887,7 +5896,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" ht="14.25" hidden="1" customHeight="1">
       <c r="A17" s="26">
         <v>8.0</v>
       </c>
@@ -5927,7 +5936,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" ht="14.25" hidden="1" customHeight="1">
       <c r="A18" s="26">
         <v>9.0</v>
       </c>
@@ -6564,20 +6573,20 @@
       <c r="D36" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="29">
-        <v>45007.0</v>
-      </c>
-      <c r="G36" s="30" t="s">
+      <c r="F36" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="G36" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="I36" s="30" t="s">
+      <c r="H36" s="36" t="s">
         <v>120</v>
+      </c>
+      <c r="I36" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="J36" s="31" t="s">
         <v>62</v>
@@ -6594,14 +6603,14 @@
         <v>62</v>
       </c>
       <c r="P36" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q36" s="31" t="s">
         <v>63</v>
       </c>
       <c r="R36" s="32"/>
       <c r="S36" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="T36" s="34" t="s">
         <v>115</v>
@@ -6615,13 +6624,13 @@
         <v>44</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="30"/>
@@ -6652,10 +6661,10 @@
         <v>74</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="30"/>
@@ -6683,13 +6692,13 @@
         <v>44</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="30"/>
@@ -6720,10 +6729,10 @@
         <v>86</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="30"/>
@@ -6754,10 +6763,10 @@
         <v>95</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="30"/>
@@ -6788,10 +6797,10 @@
         <v>104</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="30"/>
@@ -6822,10 +6831,10 @@
         <v>45</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F43" s="29"/>
       <c r="G43" s="30"/>
@@ -6856,22 +6865,22 @@
         <v>57</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" s="29">
-        <v>45007.0</v>
-      </c>
-      <c r="G44" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="H44" s="30" t="s">
+      <c r="F44" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="I44" s="30" t="s">
-        <v>120</v>
+      <c r="H44" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="J44" s="31" t="s">
         <v>62</v>
@@ -6888,14 +6897,14 @@
         <v>62</v>
       </c>
       <c r="P44" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q44" s="31" t="s">
         <v>63</v>
       </c>
       <c r="R44" s="32"/>
       <c r="S44" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T44" s="34" t="s">
         <v>115</v>
@@ -6909,13 +6918,13 @@
         <v>44</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F45" s="29"/>
       <c r="G45" s="30"/>
@@ -6946,10 +6955,10 @@
         <v>74</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="30"/>
@@ -6977,13 +6986,13 @@
         <v>44</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="30"/>
@@ -7014,10 +7023,10 @@
         <v>86</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="30"/>
@@ -7048,10 +7057,10 @@
         <v>95</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="30"/>
@@ -7082,10 +7091,10 @@
         <v>104</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F50" s="29"/>
       <c r="G50" s="30"/>
@@ -7116,10 +7125,10 @@
         <v>45</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F51" s="29"/>
       <c r="G51" s="30"/>
@@ -7141,7 +7150,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" ht="78.0" customHeight="1">
+    <row r="52" ht="78.0" hidden="1" customHeight="1">
       <c r="A52" s="26">
         <v>45.0</v>
       </c>
@@ -7152,10 +7161,10 @@
         <v>57</v>
       </c>
       <c r="D52" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="28" t="s">
         <v>158</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>157</v>
       </c>
       <c r="F52" s="29"/>
       <c r="G52" s="30"/>
@@ -7168,7 +7177,7 @@
       <c r="N52" s="31"/>
       <c r="O52" s="31"/>
       <c r="P52" s="31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q52" s="31" t="s">
         <v>63</v>
@@ -7177,7 +7186,7 @@
         <v>62</v>
       </c>
       <c r="S52" s="32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T52" s="34" t="s">
         <v>115</v>
@@ -7191,13 +7200,13 @@
         <v>44</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F53" s="29"/>
       <c r="G53" s="30"/>
@@ -7230,10 +7239,10 @@
         <v>74</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F54" s="29"/>
       <c r="G54" s="30"/>
@@ -7263,13 +7272,13 @@
         <v>44</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F55" s="29"/>
       <c r="G55" s="30"/>
@@ -7302,10 +7311,10 @@
         <v>86</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F56" s="29"/>
       <c r="G56" s="30"/>
@@ -7338,10 +7347,10 @@
         <v>95</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
@@ -7374,10 +7383,10 @@
         <v>104</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F58" s="29"/>
       <c r="G58" s="30"/>
@@ -7410,10 +7419,10 @@
         <v>45</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F59" s="29"/>
       <c r="G59" s="30"/>
@@ -7444,10 +7453,10 @@
         <v>45</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F60" s="29"/>
       <c r="G60" s="30"/>
@@ -7478,10 +7487,10 @@
         <v>45</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F61" s="29"/>
       <c r="G61" s="30"/>
@@ -7512,10 +7521,10 @@
         <v>45</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F62" s="29"/>
       <c r="G62" s="30"/>
@@ -7546,10 +7555,10 @@
         <v>45</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F63" s="29"/>
       <c r="G63" s="30"/>
@@ -7580,10 +7589,10 @@
         <v>45</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F64" s="29"/>
       <c r="G64" s="30"/>
@@ -7614,10 +7623,10 @@
         <v>45</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F65" s="29"/>
       <c r="G65" s="30"/>
@@ -7648,10 +7657,10 @@
         <v>45</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F66" s="29"/>
       <c r="G66" s="30"/>
@@ -7682,10 +7691,10 @@
         <v>45</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="30"/>
@@ -7716,10 +7725,10 @@
         <v>45</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="30"/>
@@ -7750,10 +7759,10 @@
         <v>45</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="30"/>
@@ -7773,7 +7782,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" ht="14.25" hidden="1" customHeight="1">
       <c r="A70" s="26">
         <v>63.0</v>
       </c>
@@ -7784,22 +7793,22 @@
         <v>57</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F70" s="29">
         <v>45007.0</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I70" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J70" s="31" t="s">
         <v>62</v>
@@ -7816,20 +7825,20 @@
         <v>62</v>
       </c>
       <c r="P70" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q70" s="31" t="s">
         <v>63</v>
       </c>
       <c r="R70" s="32"/>
-      <c r="S70" s="37" t="s">
-        <v>194</v>
+      <c r="S70" s="39" t="s">
+        <v>195</v>
       </c>
       <c r="T70" s="34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" ht="14.25" hidden="1" customHeight="1">
       <c r="A71" s="26">
         <v>64.0</v>
       </c>
@@ -7840,22 +7849,22 @@
         <v>57</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F71" s="29">
         <v>45007.0</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I71" s="30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J71" s="31" t="s">
         <v>62</v>
@@ -7872,20 +7881,20 @@
         <v>62</v>
       </c>
       <c r="P71" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q71" s="31" t="s">
         <v>63</v>
       </c>
       <c r="R71" s="32"/>
-      <c r="S71" s="37" t="s">
-        <v>200</v>
+      <c r="S71" s="39" t="s">
+        <v>201</v>
       </c>
       <c r="T71" s="34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" ht="14.25" hidden="1" customHeight="1">
       <c r="A72" s="26">
         <v>65.0</v>
       </c>
@@ -7896,22 +7905,22 @@
         <v>57</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F72" s="29">
         <v>45007.0</v>
       </c>
       <c r="G72" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="H72" s="38" t="s">
         <v>204</v>
       </c>
+      <c r="H72" s="40" t="s">
+        <v>205</v>
+      </c>
       <c r="I72" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J72" s="31" t="s">
         <v>62</v>
@@ -7928,20 +7937,20 @@
         <v>62</v>
       </c>
       <c r="P72" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q72" s="31" t="s">
         <v>63</v>
       </c>
       <c r="R72" s="32"/>
-      <c r="S72" s="37" t="s">
-        <v>206</v>
+      <c r="S72" s="39" t="s">
+        <v>207</v>
       </c>
       <c r="T72" s="34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" ht="14.25" hidden="1" customHeight="1">
       <c r="A73" s="26">
         <v>66.0</v>
       </c>
@@ -7952,22 +7961,22 @@
         <v>57</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F73" s="29">
         <v>45008.0</v>
       </c>
       <c r="G73" s="30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I73" s="30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J73" s="31" t="s">
         <v>62</v>
@@ -7984,7 +7993,7 @@
         <v>62</v>
       </c>
       <c r="P73" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q73" s="31" t="s">
         <v>63</v>
@@ -7995,7 +8004,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" ht="14.25" hidden="1" customHeight="1">
       <c r="A74" s="26">
         <v>67.0</v>
       </c>
@@ -8006,22 +8015,22 @@
         <v>57</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F74" s="29">
         <v>45007.0</v>
       </c>
       <c r="G74" s="30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I74" s="30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J74" s="31" t="s">
         <v>62</v>
@@ -8038,20 +8047,20 @@
         <v>62</v>
       </c>
       <c r="P74" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q74" s="31" t="s">
         <v>63</v>
       </c>
       <c r="R74" s="32"/>
-      <c r="S74" s="37" t="s">
-        <v>217</v>
+      <c r="S74" s="39" t="s">
+        <v>218</v>
       </c>
       <c r="T74" s="34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" ht="14.25" hidden="1" customHeight="1">
       <c r="A75" s="26">
         <v>68.0</v>
       </c>
@@ -8062,22 +8071,22 @@
         <v>57</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F75" s="29">
         <v>45007.0</v>
       </c>
       <c r="G75" s="30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I75" s="30" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J75" s="31" t="s">
         <v>62</v>
@@ -8094,20 +8103,20 @@
         <v>62</v>
       </c>
       <c r="P75" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q75" s="31" t="s">
         <v>63</v>
       </c>
       <c r="R75" s="32"/>
-      <c r="S75" s="37" t="s">
-        <v>223</v>
+      <c r="S75" s="39" t="s">
+        <v>224</v>
       </c>
       <c r="T75" s="34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" ht="14.25" hidden="1" customHeight="1">
       <c r="A76" s="26">
         <v>69.0</v>
       </c>
@@ -8118,22 +8127,22 @@
         <v>57</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F76" s="29">
         <v>45007.0</v>
       </c>
       <c r="G76" s="30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H76" s="30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I76" s="30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J76" s="31" t="s">
         <v>62</v>
@@ -8150,20 +8159,20 @@
         <v>62</v>
       </c>
       <c r="P76" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q76" s="31" t="s">
         <v>63</v>
       </c>
       <c r="R76" s="32"/>
       <c r="S76" s="31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T76" s="34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" ht="14.25" hidden="1" customHeight="1">
       <c r="A77" s="26">
         <v>70.0</v>
       </c>
@@ -8174,22 +8183,22 @@
         <v>57</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F77" s="29">
         <v>45007.0</v>
       </c>
       <c r="G77" s="30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H77" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I77" s="30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J77" s="31" t="s">
         <v>62</v>
@@ -8206,20 +8215,20 @@
         <v>62</v>
       </c>
       <c r="P77" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q77" s="31" t="s">
         <v>63</v>
       </c>
       <c r="R77" s="32"/>
       <c r="S77" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="T77" s="34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" ht="14.25" hidden="1" customHeight="1">
       <c r="A78" s="26">
         <v>71.0</v>
       </c>
@@ -8230,10 +8239,10 @@
         <v>57</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="30"/>
@@ -8243,7 +8252,7 @@
         <v>66</v>
       </c>
       <c r="K78" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L78" s="31"/>
       <c r="M78" s="31"/>
@@ -8257,7 +8266,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" ht="14.25" hidden="1" customHeight="1">
       <c r="A79" s="26">
         <v>72.0</v>
       </c>
@@ -8268,10 +8277,10 @@
         <v>57</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F79" s="29"/>
       <c r="G79" s="30"/>
@@ -8281,7 +8290,7 @@
         <v>66</v>
       </c>
       <c r="K79" s="31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L79" s="31"/>
       <c r="M79" s="31"/>
@@ -8295,7 +8304,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" ht="14.25" hidden="1" customHeight="1">
       <c r="A80" s="26">
         <v>73.0</v>
       </c>
@@ -8306,22 +8315,22 @@
         <v>57</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F80" s="29">
         <v>45007.0</v>
       </c>
       <c r="G80" s="30" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H80" s="30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I80" s="30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J80" s="31" t="s">
         <v>62</v>
@@ -8338,20 +8347,20 @@
         <v>62</v>
       </c>
       <c r="P80" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q80" s="31" t="s">
         <v>63</v>
       </c>
       <c r="R80" s="32"/>
       <c r="S80" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T80" s="34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" ht="14.25" hidden="1" customHeight="1">
       <c r="A81" s="26">
         <v>74.0</v>
       </c>
@@ -8362,10 +8371,10 @@
         <v>57</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F81" s="29"/>
       <c r="G81" s="30"/>
@@ -8375,7 +8384,7 @@
         <v>66</v>
       </c>
       <c r="K81" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L81" s="31"/>
       <c r="M81" s="31"/>
@@ -8400,10 +8409,10 @@
         <v>74</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F82" s="29"/>
       <c r="G82" s="30"/>
@@ -8434,10 +8443,10 @@
         <v>74</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F83" s="29"/>
       <c r="G83" s="30"/>
@@ -8468,10 +8477,10 @@
         <v>74</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E84" s="28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F84" s="29"/>
       <c r="G84" s="30"/>
@@ -8502,10 +8511,10 @@
         <v>74</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E85" s="28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F85" s="29"/>
       <c r="G85" s="30"/>
@@ -8536,10 +8545,10 @@
         <v>74</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F86" s="29"/>
       <c r="G86" s="30"/>
@@ -8570,10 +8579,10 @@
         <v>74</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E87" s="28" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F87" s="29"/>
       <c r="G87" s="30"/>
@@ -8604,10 +8613,10 @@
         <v>74</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F88" s="29"/>
       <c r="G88" s="30"/>
@@ -8638,10 +8647,10 @@
         <v>74</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F89" s="29"/>
       <c r="G89" s="30"/>
@@ -8672,10 +8681,10 @@
         <v>74</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F90" s="29"/>
       <c r="G90" s="30"/>
@@ -8706,10 +8715,10 @@
         <v>74</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F91" s="29"/>
       <c r="G91" s="30"/>
@@ -8740,10 +8749,10 @@
         <v>74</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E92" s="28" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F92" s="29"/>
       <c r="G92" s="30"/>
@@ -8774,10 +8783,10 @@
         <v>74</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F93" s="29"/>
       <c r="G93" s="30"/>
@@ -8808,10 +8817,10 @@
         <v>74</v>
       </c>
       <c r="D94" s="27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F94" s="29"/>
       <c r="G94" s="30"/>
@@ -8842,10 +8851,10 @@
         <v>74</v>
       </c>
       <c r="D95" s="27" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F95" s="29"/>
       <c r="G95" s="30"/>
@@ -8876,10 +8885,10 @@
         <v>74</v>
       </c>
       <c r="D96" s="27" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E96" s="28" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F96" s="29"/>
       <c r="G96" s="30"/>
@@ -8910,10 +8919,10 @@
         <v>74</v>
       </c>
       <c r="D97" s="27" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E97" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F97" s="29"/>
       <c r="G97" s="30"/>
@@ -8944,10 +8953,10 @@
         <v>74</v>
       </c>
       <c r="D98" s="27" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F98" s="29"/>
       <c r="G98" s="30"/>
@@ -8978,10 +8987,10 @@
         <v>74</v>
       </c>
       <c r="D99" s="27" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F99" s="29"/>
       <c r="G99" s="30"/>
@@ -9012,10 +9021,10 @@
         <v>74</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E100" s="28" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F100" s="29"/>
       <c r="G100" s="30"/>
@@ -9046,10 +9055,10 @@
         <v>86</v>
       </c>
       <c r="D101" s="27" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E101" s="28" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F101" s="29"/>
       <c r="G101" s="30"/>
@@ -9080,10 +9089,10 @@
         <v>86</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E102" s="28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F102" s="29"/>
       <c r="G102" s="30"/>
@@ -9114,10 +9123,10 @@
         <v>86</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E103" s="28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F103" s="29"/>
       <c r="G103" s="30"/>
@@ -9148,10 +9157,10 @@
         <v>86</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E104" s="28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F104" s="29"/>
       <c r="G104" s="30"/>
@@ -9182,10 +9191,10 @@
         <v>86</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E105" s="28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F105" s="29"/>
       <c r="G105" s="30"/>
@@ -9216,10 +9225,10 @@
         <v>86</v>
       </c>
       <c r="D106" s="27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E106" s="28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F106" s="29"/>
       <c r="G106" s="30"/>
@@ -9250,10 +9259,10 @@
         <v>86</v>
       </c>
       <c r="D107" s="27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E107" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F107" s="29"/>
       <c r="G107" s="30"/>
@@ -9284,10 +9293,10 @@
         <v>86</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E108" s="28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F108" s="29"/>
       <c r="G108" s="30"/>
@@ -9318,10 +9327,10 @@
         <v>86</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E109" s="28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F109" s="29"/>
       <c r="G109" s="30"/>
@@ -9352,10 +9361,10 @@
         <v>86</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E110" s="28" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F110" s="29"/>
       <c r="G110" s="30"/>
@@ -9386,10 +9395,10 @@
         <v>86</v>
       </c>
       <c r="D111" s="27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E111" s="28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F111" s="29"/>
       <c r="G111" s="30"/>
@@ -9420,10 +9429,10 @@
         <v>86</v>
       </c>
       <c r="D112" s="27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E112" s="28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F112" s="29"/>
       <c r="G112" s="30"/>
@@ -9454,10 +9463,10 @@
         <v>86</v>
       </c>
       <c r="D113" s="27" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E113" s="28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F113" s="29"/>
       <c r="G113" s="30"/>
@@ -9488,10 +9497,10 @@
         <v>95</v>
       </c>
       <c r="D114" s="27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E114" s="28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F114" s="29"/>
       <c r="G114" s="30"/>
@@ -9522,10 +9531,10 @@
         <v>95</v>
       </c>
       <c r="D115" s="27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E115" s="28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F115" s="29"/>
       <c r="G115" s="30"/>
@@ -9556,10 +9565,10 @@
         <v>95</v>
       </c>
       <c r="D116" s="27" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E116" s="28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F116" s="29"/>
       <c r="G116" s="30"/>
@@ -9590,10 +9599,10 @@
         <v>95</v>
       </c>
       <c r="D117" s="27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E117" s="28" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F117" s="29"/>
       <c r="G117" s="30"/>
@@ -9624,10 +9633,10 @@
         <v>95</v>
       </c>
       <c r="D118" s="27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E118" s="28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F118" s="29"/>
       <c r="G118" s="30"/>
@@ -9658,10 +9667,10 @@
         <v>95</v>
       </c>
       <c r="D119" s="27" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E119" s="28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F119" s="29"/>
       <c r="G119" s="30"/>
@@ -9692,10 +9701,10 @@
         <v>95</v>
       </c>
       <c r="D120" s="27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E120" s="28" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F120" s="29"/>
       <c r="G120" s="30"/>
@@ -9726,10 +9735,10 @@
         <v>95</v>
       </c>
       <c r="D121" s="27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E121" s="28" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F121" s="29"/>
       <c r="G121" s="30"/>
@@ -9760,10 +9769,10 @@
         <v>95</v>
       </c>
       <c r="D122" s="27" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E122" s="28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F122" s="29"/>
       <c r="G122" s="30"/>
@@ -9794,10 +9803,10 @@
         <v>95</v>
       </c>
       <c r="D123" s="27" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E123" s="28" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F123" s="29"/>
       <c r="G123" s="30"/>
@@ -9828,10 +9837,10 @@
         <v>95</v>
       </c>
       <c r="D124" s="27" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E124" s="28" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F124" s="29"/>
       <c r="G124" s="30"/>
@@ -9862,10 +9871,10 @@
         <v>95</v>
       </c>
       <c r="D125" s="27" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E125" s="28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F125" s="29"/>
       <c r="G125" s="30"/>
@@ -9896,10 +9905,10 @@
         <v>95</v>
       </c>
       <c r="D126" s="27" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E126" s="28" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F126" s="29"/>
       <c r="G126" s="30"/>
@@ -9930,10 +9939,10 @@
         <v>95</v>
       </c>
       <c r="D127" s="27" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F127" s="29"/>
       <c r="G127" s="30"/>
@@ -9964,10 +9973,10 @@
         <v>95</v>
       </c>
       <c r="D128" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E128" s="28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F128" s="29"/>
       <c r="G128" s="30"/>
@@ -9998,10 +10007,10 @@
         <v>104</v>
       </c>
       <c r="D129" s="27" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E129" s="28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F129" s="29"/>
       <c r="G129" s="30"/>
@@ -10032,10 +10041,10 @@
         <v>104</v>
       </c>
       <c r="D130" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E130" s="28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F130" s="29"/>
       <c r="G130" s="30"/>
@@ -10066,10 +10075,10 @@
         <v>104</v>
       </c>
       <c r="D131" s="27" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E131" s="28" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F131" s="29"/>
       <c r="G131" s="30"/>
@@ -10100,10 +10109,10 @@
         <v>104</v>
       </c>
       <c r="D132" s="27" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E132" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F132" s="29"/>
       <c r="G132" s="30"/>
@@ -10134,10 +10143,10 @@
         <v>104</v>
       </c>
       <c r="D133" s="27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E133" s="28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F133" s="29"/>
       <c r="G133" s="30"/>
@@ -10168,10 +10177,10 @@
         <v>104</v>
       </c>
       <c r="D134" s="27" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E134" s="28" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F134" s="29"/>
       <c r="G134" s="30"/>
@@ -10202,10 +10211,10 @@
         <v>104</v>
       </c>
       <c r="D135" s="27" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E135" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F135" s="29"/>
       <c r="G135" s="30"/>
@@ -10236,10 +10245,10 @@
         <v>104</v>
       </c>
       <c r="D136" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E136" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F136" s="29"/>
       <c r="G136" s="30"/>
@@ -10270,10 +10279,10 @@
         <v>104</v>
       </c>
       <c r="D137" s="27" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E137" s="28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F137" s="29"/>
       <c r="G137" s="30"/>
@@ -10304,10 +10313,10 @@
         <v>104</v>
       </c>
       <c r="D138" s="27" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E138" s="28" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F138" s="29"/>
       <c r="G138" s="30"/>
@@ -10338,10 +10347,10 @@
         <v>104</v>
       </c>
       <c r="D139" s="27" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E139" s="28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F139" s="29"/>
       <c r="G139" s="30"/>
@@ -10372,10 +10381,10 @@
         <v>104</v>
       </c>
       <c r="D140" s="27" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E140" s="28" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F140" s="29"/>
       <c r="G140" s="30"/>
@@ -10406,10 +10415,10 @@
         <v>104</v>
       </c>
       <c r="D141" s="27" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E141" s="28" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F141" s="29"/>
       <c r="G141" s="30"/>
@@ -10440,10 +10449,10 @@
         <v>104</v>
       </c>
       <c r="D142" s="27" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E142" s="28" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F142" s="29"/>
       <c r="G142" s="30"/>
@@ -10474,10 +10483,10 @@
         <v>104</v>
       </c>
       <c r="D143" s="27" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E143" s="28" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F143" s="29"/>
       <c r="G143" s="30"/>
@@ -10508,10 +10517,10 @@
         <v>104</v>
       </c>
       <c r="D144" s="27" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E144" s="28" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F144" s="29"/>
       <c r="G144" s="30"/>
@@ -10542,10 +10551,10 @@
         <v>104</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E145" s="28" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F145" s="29"/>
       <c r="G145" s="30"/>
@@ -10576,10 +10585,10 @@
         <v>104</v>
       </c>
       <c r="D146" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E146" s="28" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F146" s="29"/>
       <c r="G146" s="30"/>
@@ -10610,10 +10619,10 @@
         <v>104</v>
       </c>
       <c r="D147" s="27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E147" s="28" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F147" s="29"/>
       <c r="G147" s="30"/>
@@ -10644,10 +10653,10 @@
         <v>104</v>
       </c>
       <c r="D148" s="27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E148" s="28" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F148" s="29"/>
       <c r="G148" s="30"/>
@@ -10678,10 +10687,10 @@
         <v>104</v>
       </c>
       <c r="D149" s="27" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E149" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F149" s="29"/>
       <c r="G149" s="30"/>
@@ -10712,10 +10721,10 @@
         <v>104</v>
       </c>
       <c r="D150" s="27" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E150" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F150" s="29"/>
       <c r="G150" s="30"/>
@@ -10746,10 +10755,10 @@
         <v>104</v>
       </c>
       <c r="D151" s="27" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E151" s="28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F151" s="29"/>
       <c r="G151" s="30"/>
@@ -10780,10 +10789,10 @@
         <v>104</v>
       </c>
       <c r="D152" s="27" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E152" s="28" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F152" s="29"/>
       <c r="G152" s="30"/>
@@ -10814,10 +10823,10 @@
         <v>104</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E153" s="28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F153" s="29"/>
       <c r="G153" s="30"/>
@@ -10845,13 +10854,13 @@
         <v>44</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D154" s="27" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E154" s="28" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F154" s="29"/>
       <c r="G154" s="30"/>
@@ -10879,13 +10888,13 @@
         <v>44</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D155" s="27" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E155" s="28" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F155" s="29"/>
       <c r="G155" s="30"/>
@@ -10913,13 +10922,13 @@
         <v>44</v>
       </c>
       <c r="C156" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D156" s="27" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E156" s="28" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F156" s="29"/>
       <c r="G156" s="30"/>
@@ -10947,13 +10956,13 @@
         <v>44</v>
       </c>
       <c r="C157" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D157" s="27" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E157" s="28" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F157" s="29"/>
       <c r="G157" s="30"/>
@@ -10981,13 +10990,13 @@
         <v>44</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D158" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E158" s="28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F158" s="29"/>
       <c r="G158" s="30"/>
@@ -11015,13 +11024,13 @@
         <v>44</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D159" s="27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E159" s="28" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F159" s="29"/>
       <c r="G159" s="30"/>
@@ -11049,13 +11058,13 @@
         <v>44</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D160" s="27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E160" s="28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F160" s="29"/>
       <c r="G160" s="30"/>
@@ -11083,13 +11092,13 @@
         <v>44</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D161" s="27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E161" s="28" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F161" s="29"/>
       <c r="G161" s="30"/>
@@ -11117,13 +11126,13 @@
         <v>44</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D162" s="27" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E162" s="28" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F162" s="29"/>
       <c r="G162" s="30"/>
@@ -11151,13 +11160,13 @@
         <v>44</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D163" s="27" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E163" s="28" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F163" s="29"/>
       <c r="G163" s="30"/>
@@ -11185,13 +11194,13 @@
         <v>44</v>
       </c>
       <c r="C164" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D164" s="27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E164" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F164" s="29"/>
       <c r="G164" s="30"/>
@@ -11219,13 +11228,13 @@
         <v>44</v>
       </c>
       <c r="C165" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D165" s="27" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E165" s="28" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F165" s="29"/>
       <c r="G165" s="30"/>
@@ -11253,13 +11262,13 @@
         <v>44</v>
       </c>
       <c r="C166" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D166" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E166" s="28" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F166" s="29"/>
       <c r="G166" s="30"/>
@@ -11287,13 +11296,13 @@
         <v>44</v>
       </c>
       <c r="C167" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E167" s="28" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F167" s="29"/>
       <c r="G167" s="30"/>
@@ -11321,13 +11330,13 @@
         <v>44</v>
       </c>
       <c r="C168" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D168" s="27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E168" s="28" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F168" s="29"/>
       <c r="G168" s="30"/>
@@ -11355,13 +11364,13 @@
         <v>44</v>
       </c>
       <c r="C169" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E169" s="28" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F169" s="29"/>
       <c r="G169" s="30"/>
@@ -11389,13 +11398,13 @@
         <v>44</v>
       </c>
       <c r="C170" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D170" s="27" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E170" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F170" s="29"/>
       <c r="G170" s="30"/>
@@ -11423,13 +11432,13 @@
         <v>44</v>
       </c>
       <c r="C171" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D171" s="27" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E171" s="28" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F171" s="29"/>
       <c r="G171" s="30"/>
@@ -11457,13 +11466,13 @@
         <v>44</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D172" s="27" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E172" s="28" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F172" s="29"/>
       <c r="G172" s="30"/>
@@ -11491,13 +11500,13 @@
         <v>44</v>
       </c>
       <c r="C173" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D173" s="27" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E173" s="28" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F173" s="29"/>
       <c r="G173" s="30"/>
@@ -11525,13 +11534,13 @@
         <v>44</v>
       </c>
       <c r="C174" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D174" s="27" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E174" s="28" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F174" s="29"/>
       <c r="G174" s="30"/>
@@ -11559,13 +11568,13 @@
         <v>44</v>
       </c>
       <c r="C175" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D175" s="27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E175" s="28" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F175" s="29"/>
       <c r="G175" s="30"/>
@@ -11593,13 +11602,13 @@
         <v>44</v>
       </c>
       <c r="C176" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D176" s="27" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E176" s="28" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F176" s="29"/>
       <c r="G176" s="30"/>
@@ -11627,13 +11636,13 @@
         <v>44</v>
       </c>
       <c r="C177" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D177" s="27" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E177" s="28" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F177" s="29"/>
       <c r="G177" s="30"/>
@@ -11661,13 +11670,13 @@
         <v>44</v>
       </c>
       <c r="C178" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D178" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E178" s="28" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F178" s="29"/>
       <c r="G178" s="30"/>
@@ -11695,13 +11704,13 @@
         <v>44</v>
       </c>
       <c r="C179" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D179" s="27" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E179" s="28" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F179" s="29"/>
       <c r="G179" s="30"/>
@@ -11729,13 +11738,13 @@
         <v>44</v>
       </c>
       <c r="C180" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D180" s="27" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E180" s="28" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F180" s="29"/>
       <c r="G180" s="30"/>
@@ -11763,13 +11772,13 @@
         <v>44</v>
       </c>
       <c r="C181" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D181" s="27" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E181" s="28" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F181" s="29"/>
       <c r="G181" s="30"/>
@@ -11797,13 +11806,13 @@
         <v>44</v>
       </c>
       <c r="C182" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D182" s="27" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E182" s="28" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F182" s="29"/>
       <c r="G182" s="30"/>
@@ -11831,13 +11840,13 @@
         <v>44</v>
       </c>
       <c r="C183" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D183" s="27" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E183" s="28" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F183" s="29"/>
       <c r="G183" s="30"/>
@@ -11865,13 +11874,13 @@
         <v>44</v>
       </c>
       <c r="C184" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D184" s="27" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E184" s="28" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F184" s="29"/>
       <c r="G184" s="30"/>
@@ -11899,13 +11908,13 @@
         <v>44</v>
       </c>
       <c r="C185" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D185" s="27" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E185" s="28" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F185" s="29"/>
       <c r="G185" s="30"/>
@@ -11933,13 +11942,13 @@
         <v>44</v>
       </c>
       <c r="C186" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D186" s="27" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E186" s="28" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F186" s="29"/>
       <c r="G186" s="30"/>
@@ -11967,13 +11976,13 @@
         <v>44</v>
       </c>
       <c r="C187" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D187" s="27" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E187" s="28" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F187" s="29"/>
       <c r="G187" s="30"/>
@@ -12001,13 +12010,13 @@
         <v>44</v>
       </c>
       <c r="C188" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D188" s="27" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E188" s="28" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F188" s="29"/>
       <c r="G188" s="30"/>
@@ -12035,13 +12044,13 @@
         <v>44</v>
       </c>
       <c r="C189" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D189" s="27" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E189" s="28" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F189" s="29"/>
       <c r="G189" s="30"/>
@@ -12069,13 +12078,13 @@
         <v>44</v>
       </c>
       <c r="C190" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D190" s="27" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E190" s="28" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F190" s="29"/>
       <c r="G190" s="30"/>
@@ -12103,13 +12112,13 @@
         <v>44</v>
       </c>
       <c r="C191" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D191" s="27" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E191" s="28" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F191" s="29"/>
       <c r="G191" s="30"/>
@@ -12137,13 +12146,13 @@
         <v>44</v>
       </c>
       <c r="C192" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D192" s="27" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E192" s="28" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F192" s="29"/>
       <c r="G192" s="30"/>
@@ -12171,13 +12180,13 @@
         <v>44</v>
       </c>
       <c r="C193" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D193" s="27" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E193" s="28" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F193" s="29"/>
       <c r="G193" s="30"/>
@@ -12205,13 +12214,13 @@
         <v>44</v>
       </c>
       <c r="C194" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D194" s="27" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E194" s="28" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F194" s="29"/>
       <c r="G194" s="30"/>
@@ -12239,13 +12248,13 @@
         <v>44</v>
       </c>
       <c r="C195" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D195" s="27" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E195" s="28" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F195" s="29"/>
       <c r="G195" s="30"/>
@@ -12273,13 +12282,13 @@
         <v>44</v>
       </c>
       <c r="C196" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D196" s="27" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E196" s="28" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F196" s="29"/>
       <c r="G196" s="30"/>
@@ -12307,13 +12316,13 @@
         <v>44</v>
       </c>
       <c r="C197" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D197" s="27" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E197" s="28" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F197" s="29"/>
       <c r="G197" s="30"/>
@@ -12344,10 +12353,10 @@
         <v>45</v>
       </c>
       <c r="D198" s="27" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E198" s="28" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F198" s="29"/>
       <c r="G198" s="30"/>
@@ -25887,6 +25896,182 @@
     <filterColumn colId="2">
       <filters>
         <filter val="LDO"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="88"/>
+        <filter val="89"/>
+        <filter val="190"/>
+        <filter val="191"/>
+        <filter val="110"/>
+        <filter val="111"/>
+        <filter val="112"/>
+        <filter val="113"/>
+        <filter val="114"/>
+        <filter val="115"/>
+        <filter val="116"/>
+        <filter val="90"/>
+        <filter val="117"/>
+        <filter val="91"/>
+        <filter val="118"/>
+        <filter val="92"/>
+        <filter val="119"/>
+        <filter val="93"/>
+        <filter val="94"/>
+        <filter val="95"/>
+        <filter val="96"/>
+        <filter val="97"/>
+        <filter val="98"/>
+        <filter val="11"/>
+        <filter val="99"/>
+        <filter val="12"/>
+        <filter val="13"/>
+        <filter val="14"/>
+        <filter val="16"/>
+        <filter val="17"/>
+        <filter val="18"/>
+        <filter val="19"/>
+        <filter val="120"/>
+        <filter val="121"/>
+        <filter val="1"/>
+        <filter val="122"/>
+        <filter val="2"/>
+        <filter val="123"/>
+        <filter val="3"/>
+        <filter val="124"/>
+        <filter val="4"/>
+        <filter val="125"/>
+        <filter val="5"/>
+        <filter val="126"/>
+        <filter val="127"/>
+        <filter val="128"/>
+        <filter val="129"/>
+        <filter val="20"/>
+        <filter val="21"/>
+        <filter val="22"/>
+        <filter val="23"/>
+        <filter val="24"/>
+        <filter val="25"/>
+        <filter val="26"/>
+        <filter val="27"/>
+        <filter val="28"/>
+        <filter val="29"/>
+        <filter val="130"/>
+        <filter val="131"/>
+        <filter val="132"/>
+        <filter val="133"/>
+        <filter val="134"/>
+        <filter val="135"/>
+        <filter val="136"/>
+        <filter val="137"/>
+        <filter val="138"/>
+        <filter val="139"/>
+        <filter val="30"/>
+        <filter val="31"/>
+        <filter val="32"/>
+        <filter val="33"/>
+        <filter val="34"/>
+        <filter val="35"/>
+        <filter val="36"/>
+        <filter val="37"/>
+        <filter val="38"/>
+        <filter val="39"/>
+        <filter val="140"/>
+        <filter val="141"/>
+        <filter val="142"/>
+        <filter val="143"/>
+        <filter val="144"/>
+        <filter val="145"/>
+        <filter val="146"/>
+        <filter val="147"/>
+        <filter val="148"/>
+        <filter val="149"/>
+        <filter val="40"/>
+        <filter val="41"/>
+        <filter val="42"/>
+        <filter val="43"/>
+        <filter val="44"/>
+        <filter val="46"/>
+        <filter val="47"/>
+        <filter val="48"/>
+        <filter val="49"/>
+        <filter val="150"/>
+        <filter val="151"/>
+        <filter val="152"/>
+        <filter val="153"/>
+        <filter val="154"/>
+        <filter val="155"/>
+        <filter val="156"/>
+        <filter val="157"/>
+        <filter val="158"/>
+        <filter val="159"/>
+        <filter val="50"/>
+        <filter val="51"/>
+        <filter val="52"/>
+        <filter val="53"/>
+        <filter val="54"/>
+        <filter val="55"/>
+        <filter val="56"/>
+        <filter val="57"/>
+        <filter val="58"/>
+        <filter val="59"/>
+        <filter val="160"/>
+        <filter val="161"/>
+        <filter val="162"/>
+        <filter val="163"/>
+        <filter val="164"/>
+        <filter val="165"/>
+        <filter val="166"/>
+        <filter val="167"/>
+        <filter val="168"/>
+        <filter val="169"/>
+        <filter val="60"/>
+        <filter val="61"/>
+        <filter val="62"/>
+        <filter val="170"/>
+        <filter val="171"/>
+        <filter val="172"/>
+        <filter val="173"/>
+        <filter val="174"/>
+        <filter val="175"/>
+        <filter val="176"/>
+        <filter val="177"/>
+        <filter val="178"/>
+        <filter val="179"/>
+        <filter val="75"/>
+        <filter val="76"/>
+        <filter val="77"/>
+        <filter val="78"/>
+        <filter val="79"/>
+        <filter val="180"/>
+        <filter val="181"/>
+        <filter val="182"/>
+        <filter val="183"/>
+        <filter val="184"/>
+        <filter val="185"/>
+        <filter val="186"/>
+        <filter val="187"/>
+        <filter val="100"/>
+        <filter val="188"/>
+        <filter val="101"/>
+        <filter val="189"/>
+        <filter val="102"/>
+        <filter val="103"/>
+        <filter val="104"/>
+        <filter val="105"/>
+        <filter val="106"/>
+        <filter val="80"/>
+        <filter val="107"/>
+        <filter val="81"/>
+        <filter val="108"/>
+        <filter val="82"/>
+        <filter val="109"/>
+        <filter val="83"/>
+        <filter val="84"/>
+        <filter val="85"/>
+        <filter val="86"/>
+        <filter val="87"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -25936,143 +26121,143 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="41" t="s">
         <v>486</v>
       </c>
+      <c r="D1" s="41" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>487</v>
-      </c>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>488</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="43" t="s">
         <v>489</v>
       </c>
+      <c r="D2" s="43" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>487</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="B3" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>491</v>
       </c>
+      <c r="D3" s="43" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>487</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>492</v>
-      </c>
-      <c r="D4" s="42" t="s">
+      <c r="B4" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>493</v>
       </c>
+      <c r="D4" s="44" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>487</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>494</v>
-      </c>
-      <c r="D5" s="41" t="s">
+      <c r="B5" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>495</v>
       </c>
+      <c r="D5" s="43" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>487</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>496</v>
-      </c>
-      <c r="D6" s="42" t="s">
+      <c r="B6" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>497</v>
       </c>
+      <c r="D6" s="44" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>487</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>498</v>
-      </c>
-      <c r="D7" s="42" t="s">
+      <c r="B7" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>499</v>
       </c>
+      <c r="D7" s="44" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>487</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>500</v>
-      </c>
-      <c r="D8" s="42" t="s">
+      <c r="A8" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>501</v>
       </c>
+      <c r="D8" s="44" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>487</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>502</v>
-      </c>
-      <c r="D9" s="42" t="s">
+      <c r="A9" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C9" s="43" t="s">
         <v>503</v>
       </c>
+      <c r="D9" s="44" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="40" t="s">
-        <v>504</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>487</v>
-      </c>
-      <c r="C10" s="41">
+      <c r="A10" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="C10" s="43">
         <v>191.0</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>505</v>
+      <c r="D10" s="43" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
@@ -27087,26 +27272,26 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="45" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="45" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="43" t="s">
-        <v>506</v>
-      </c>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="45" t="s">
+        <v>507</v>
+      </c>
+      <c r="B3" s="45" t="s">
         <v>66</v>
       </c>
     </row>
